--- a/Planification/Carta Gantt RRHH.xlsx
+++ b/Planification/Carta Gantt RRHH.xlsx
@@ -5,13 +5,13 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konko\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\RRHH-system\Planification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{000E62E6-0EEE-4395-A070-2ADFF053B069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB78326-01E3-4BB9-97BE-BEBFA2F719C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36BFA38F-FC64-4C08-A57F-E8203CD341E0}"/>
-    <workbookView minimized="1" xWindow="1596" yWindow="2052" windowWidth="17280" windowHeight="8880" xr2:uid="{B4BC0E28-E029-43DE-B328-99D584B15A55}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{36BFA38F-FC64-4C08-A57F-E8203CD341E0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B4BC0E28-E029-43DE-B328-99D584B15A55}"/>
   </bookViews>
   <sheets>
     <sheet name="Carta Gantt" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Carta Gantt</t>
   </si>
@@ -174,13 +174,16 @@
   </si>
   <si>
     <t>Encargado de la Semana (Culpable)</t>
+  </si>
+  <si>
+    <t>Cada dos semanas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +215,13 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -363,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,14 +420,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,24 +433,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,11 +459,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,10 +510,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -814,74 +829,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47BD398-A0FA-4039-9955-F544AEC33F6F}">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16:G16"/>
     </sheetView>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="63" workbookViewId="1">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection sqref="A1:AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="35.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="14" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="30" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="7" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="11.5546875" style="1"/>
+    <col min="34" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-    </row>
-    <row r="2" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+    </row>
+    <row r="2" spans="1:33" ht="16" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3">
@@ -975,72 +991,72 @@
         <v>45631</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="33">
-        <v>0</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="31">
+    <row r="3" spans="1:33" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="26">
         <v>1</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="29">
+      <c r="E3" s="27"/>
+      <c r="F3" s="24">
         <v>2</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="33">
+      <c r="G3" s="25"/>
+      <c r="H3" s="22">
         <v>3</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="31">
+      <c r="I3" s="23"/>
+      <c r="J3" s="26">
         <v>4</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="29">
+      <c r="K3" s="27"/>
+      <c r="L3" s="24">
         <v>5</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="33">
+      <c r="M3" s="25"/>
+      <c r="N3" s="22">
         <v>6</v>
       </c>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="31">
+      <c r="O3" s="23"/>
+      <c r="P3" s="26">
         <v>7</v>
       </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="29">
+      <c r="Q3" s="27"/>
+      <c r="R3" s="24">
         <v>8</v>
       </c>
-      <c r="U3" s="30"/>
-      <c r="V3" s="33">
+      <c r="S3" s="25"/>
+      <c r="T3" s="22">
         <v>9</v>
       </c>
-      <c r="W3" s="34"/>
-      <c r="X3" s="31">
+      <c r="U3" s="23"/>
+      <c r="V3" s="26">
         <v>10</v>
       </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="29">
+      <c r="W3" s="27"/>
+      <c r="X3" s="24">
         <v>11</v>
       </c>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="33">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="22">
         <v>12</v>
       </c>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="31">
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="26">
         <v>13</v>
       </c>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="29">
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="24">
         <v>14</v>
       </c>
-      <c r="AG3" s="30"/>
-    </row>
-    <row r="4" spans="1:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="22">
+        <v>15</v>
+      </c>
+      <c r="AG3" s="23"/>
+    </row>
+    <row r="4" spans="1:33" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1050,38 +1066,38 @@
       <c r="C4" s="15">
         <v>0</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-    </row>
-    <row r="5" spans="1:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+    </row>
+    <row r="5" spans="1:33" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
@@ -1091,38 +1107,38 @@
       <c r="C5" s="15">
         <v>0</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-    </row>
-    <row r="6" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+    </row>
+    <row r="6" spans="1:33" ht="16" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -1132,38 +1148,38 @@
       <c r="C6" s="15">
         <v>0</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-    </row>
-    <row r="7" spans="1:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+    </row>
+    <row r="7" spans="1:33" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
@@ -1173,38 +1189,38 @@
       <c r="C7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-    </row>
-    <row r="8" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+    </row>
+    <row r="8" spans="1:33" ht="32" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -1214,38 +1230,38 @@
       <c r="C8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-    </row>
-    <row r="9" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+    </row>
+    <row r="9" spans="1:33" ht="16" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
@@ -1255,38 +1271,38 @@
       <c r="C9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="17"/>
-    </row>
-    <row r="10" spans="1:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="37"/>
+    </row>
+    <row r="10" spans="1:33" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="13" t="s">
         <v>33</v>
       </c>
@@ -1296,368 +1312,368 @@
       <c r="C10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-    </row>
-    <row r="11" spans="1:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+    </row>
+    <row r="11" spans="1:33" ht="32" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="35"/>
+    </row>
+    <row r="12" spans="1:33" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-    </row>
-    <row r="12" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+    </row>
+    <row r="13" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-    </row>
-    <row r="13" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-    </row>
-    <row r="14" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="V13" s="36"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+    </row>
+    <row r="14" spans="1:33" ht="32" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+    </row>
+    <row r="15" spans="1:33" ht="16" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-    </row>
-    <row r="15" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+    </row>
+    <row r="16" spans="1:33" ht="32" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-    </row>
-    <row r="16" spans="1:33" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+    </row>
+    <row r="17" spans="1:33" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-    </row>
-    <row r="17" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-    </row>
-    <row r="18" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>17</v>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+    </row>
+    <row r="18" spans="1:33" ht="32" x14ac:dyDescent="0.4">
+      <c r="A18" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
     </row>
-    <row r="19" spans="1:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>19</v>
+    <row r="19" spans="1:33" ht="16" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>18</v>
@@ -1665,220 +1681,376 @@
       <c r="C19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-    </row>
-    <row r="20" spans="1:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+    </row>
+    <row r="20" spans="1:33" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+    </row>
+    <row r="21" spans="1:33" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-    </row>
-    <row r="21" spans="1:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-    </row>
-    <row r="22" spans="1:33" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+    </row>
+    <row r="22" spans="1:33" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="11"/>
+    </row>
+    <row r="23" spans="1:33" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23"/>
+      <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="8"/>
+    <row r="24" spans="1:33" ht="16" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="16" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="B25" s="8"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="16" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:33" ht="16" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:33" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:33" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:33" ht="16" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:33" ht="16" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="17" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="274">
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D10:E10"/>
+  <mergeCells count="289">
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF11:AG11"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
@@ -1900,182 +2072,82 @@
     <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2092,15 +2164,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004514E5F83D9F5F41AB51988DB0136076" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9822338e7dc8ac3ff3d236ad8c22fbed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0e136823-716a-45ab-8d14-c3947f0ecbdd" xmlns:ns4="fec61982-e54d-494b-88a3-acff463f2006" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e93a848333fc14cfa09b0dfdb68c6859" ns3:_="" ns4:_="">
     <xsd:import namespace="0e136823-716a-45ab-8d14-c3947f0ecbdd"/>
@@ -2353,6 +2416,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19298C21-30B3-4703-B067-FEBC63CDCEB3}">
   <ds:schemaRefs>
@@ -2371,14 +2443,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F68E8259-7203-4347-9502-FD389377625F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{925E1BFB-DF4D-4EAC-AAEB-4917982099F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2395,4 +2459,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F68E8259-7203-4347-9502-FD389377625F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planification/Carta Gantt RRHH.xlsx
+++ b/Planification/Carta Gantt RRHH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\RRHH-system\Planification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konko\OneDrive\Documentos\GitHub Repositories\RRHH-system\Planification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95EE60F-091D-41F9-AF1C-5AEB5CD72528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B520CC53-96B2-42F1-B346-41F9BFDC6610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{36BFA38F-FC64-4C08-A57F-E8203CD341E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36BFA38F-FC64-4C08-A57F-E8203CD341E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Carta Gantt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Carta Gantt</t>
   </si>
@@ -122,9 +122,6 @@
     <t>12/09 edited by All</t>
   </si>
   <si>
-    <t>13/09 final version by Lucas</t>
-  </si>
-  <si>
     <t>Cada dos semanas</t>
   </si>
   <si>
@@ -158,11 +155,17 @@
     <t>Encargado</t>
   </si>
   <si>
-    <t>Diseño web y desarrollo con FLASK
+    <t>Integrar llamadas de queries en la página web</t>
+  </si>
+  <si>
+    <t>Desarrollo con HTML/FLASK
  y conexión a base de datos</t>
   </si>
   <si>
-    <t>Integrar llamadas de queries en la página web</t>
+    <t>13/09 version by Lucas</t>
+  </si>
+  <si>
+    <t>20/10 final revision by All</t>
   </si>
 </sst>
 </file>
@@ -416,118 +419,118 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -866,199 +869,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47BD398-A0FA-4039-9955-F544AEC33F6F}">
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="7" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="11.54296875" style="1"/>
+    <col min="33" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-    </row>
-    <row r="2" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
-        <v>38</v>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="14" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="37" t="s">
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="40" t="s">
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="14" t="s">
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-    </row>
-    <row r="3" spans="1:32" ht="16" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+    </row>
+    <row r="3" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="15">
         <v>45530</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="16">
         <v>45536</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="15">
         <v>45537</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="16">
         <v>45543</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="17">
         <v>45544</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="18">
         <v>45550</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="17">
         <v>45551</v>
       </c>
-      <c r="J3" s="48">
+      <c r="J3" s="18">
         <v>45557</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="13">
         <v>45558</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="14">
         <v>45564</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="13">
         <v>45565</v>
       </c>
-      <c r="N3" s="44">
+      <c r="N3" s="14">
         <v>45571</v>
       </c>
-      <c r="O3" s="45">
+      <c r="O3" s="15">
         <v>45572</v>
       </c>
-      <c r="P3" s="46">
+      <c r="P3" s="16">
         <v>45578</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q3" s="15">
         <v>45579</v>
       </c>
-      <c r="R3" s="46">
+      <c r="R3" s="16">
         <v>45585</v>
       </c>
-      <c r="S3" s="47">
+      <c r="S3" s="17">
         <v>45586</v>
       </c>
-      <c r="T3" s="48">
+      <c r="T3" s="18">
         <v>45592</v>
       </c>
-      <c r="U3" s="47">
+      <c r="U3" s="17">
         <v>45593</v>
       </c>
-      <c r="V3" s="48">
+      <c r="V3" s="18">
         <v>45599</v>
       </c>
-      <c r="W3" s="43">
+      <c r="W3" s="13">
         <v>45600</v>
       </c>
-      <c r="X3" s="44">
+      <c r="X3" s="14">
         <v>45606</v>
       </c>
-      <c r="Y3" s="43">
+      <c r="Y3" s="13">
         <v>45607</v>
       </c>
-      <c r="Z3" s="44">
+      <c r="Z3" s="14">
         <v>45613</v>
       </c>
-      <c r="AA3" s="45">
+      <c r="AA3" s="15">
         <v>45614</v>
       </c>
-      <c r="AB3" s="46">
+      <c r="AB3" s="16">
         <v>45620</v>
       </c>
-      <c r="AC3" s="45">
+      <c r="AC3" s="15">
         <v>45621</v>
       </c>
-      <c r="AD3" s="46">
+      <c r="AD3" s="16">
         <v>45627</v>
       </c>
       <c r="AE3" s="2">
@@ -1068,886 +1071,982 @@
         <v>45631</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="14">
+    <row r="4" spans="1:32" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="40">
         <v>1</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14">
+      <c r="D4" s="41"/>
+      <c r="E4" s="40">
         <v>2</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="37">
+      <c r="F4" s="41"/>
+      <c r="G4" s="42">
         <v>3</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="37">
+      <c r="H4" s="43"/>
+      <c r="I4" s="42">
         <v>4</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40">
+      <c r="J4" s="43"/>
+      <c r="K4" s="44">
         <v>5</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="40">
+      <c r="L4" s="45"/>
+      <c r="M4" s="44">
         <v>6</v>
       </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="14">
+      <c r="N4" s="45"/>
+      <c r="O4" s="40">
         <v>7</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="14">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="40">
         <v>8</v>
       </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="37">
+      <c r="R4" s="41"/>
+      <c r="S4" s="42">
         <v>9</v>
       </c>
-      <c r="T4" s="39"/>
-      <c r="U4" s="37">
+      <c r="T4" s="43"/>
+      <c r="U4" s="42">
         <v>10</v>
       </c>
-      <c r="V4" s="39"/>
-      <c r="W4" s="40">
+      <c r="V4" s="43"/>
+      <c r="W4" s="44">
         <v>11</v>
       </c>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="40">
+      <c r="X4" s="45"/>
+      <c r="Y4" s="44">
         <v>12</v>
       </c>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="14">
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="40">
         <v>13</v>
       </c>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="14">
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="40">
         <v>14</v>
       </c>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="23">
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="38">
         <v>15</v>
       </c>
-      <c r="AF4" s="24"/>
-    </row>
-    <row r="5" spans="1:32" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AF4" s="39"/>
+    </row>
+    <row r="5" spans="1:32" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-    </row>
-    <row r="6" spans="1:32" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+    </row>
+    <row r="6" spans="1:32" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-    </row>
-    <row r="7" spans="1:32" ht="16" x14ac:dyDescent="0.4">
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+    </row>
+    <row r="7" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-    </row>
-    <row r="8" spans="1:32" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+    </row>
+    <row r="8" spans="1:32" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-    </row>
-    <row r="9" spans="1:32" ht="32" x14ac:dyDescent="0.4">
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+    </row>
+    <row r="9" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-    </row>
-    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.4">
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+    </row>
+    <row r="10" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="36"/>
-    </row>
-    <row r="11" spans="1:32" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="27"/>
+    </row>
+    <row r="11" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="21"/>
+    </row>
+    <row r="12" spans="1:32" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-    </row>
-    <row r="12" spans="1:32" ht="32" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
       <c r="AE12" s="29"/>
-      <c r="AF12" s="30"/>
-    </row>
-    <row r="13" spans="1:32" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AF12" s="29"/>
+    </row>
+    <row r="13" spans="1:32" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
       <c r="R13" s="28"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-    </row>
-    <row r="14" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+    </row>
+    <row r="14" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
       <c r="S14" s="28"/>
       <c r="T14" s="28"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-    </row>
-    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.4">
+      <c r="U14" s="20"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+    </row>
+    <row r="15" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
       <c r="U15" s="28"/>
       <c r="V15" s="28"/>
       <c r="W15" s="28"/>
       <c r="X15" s="28"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-    </row>
-    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.4">
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+    </row>
+    <row r="16" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
       <c r="U16" s="28"/>
       <c r="V16" s="28"/>
       <c r="W16" s="28"/>
       <c r="X16" s="28"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-    </row>
-    <row r="17" spans="1:32" ht="32" x14ac:dyDescent="0.4">
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+    </row>
+    <row r="17" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="22"/>
+        <v>34</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="24"/>
       <c r="W17" s="28"/>
       <c r="X17" s="28"/>
       <c r="Y17" s="28"/>
       <c r="Z17" s="28"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-    </row>
-    <row r="18" spans="1:32" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+    </row>
+    <row r="18" spans="1:32" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
       <c r="Y18" s="28"/>
       <c r="Z18" s="28"/>
       <c r="AA18" s="28"/>
       <c r="AB18" s="28"/>
       <c r="AC18" s="28"/>
       <c r="AD18" s="28"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-    </row>
-    <row r="19" spans="1:32" ht="32" x14ac:dyDescent="0.4">
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+    </row>
+    <row r="19" spans="1:32" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
       <c r="AA19" s="28"/>
       <c r="AB19" s="28"/>
       <c r="AC19" s="28"/>
       <c r="AD19" s="28"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-    </row>
-    <row r="20" spans="1:32" ht="16" x14ac:dyDescent="0.4">
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+    </row>
+    <row r="20" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
       <c r="AC20" s="28"/>
       <c r="AD20" s="28"/>
       <c r="AE20" s="28"/>
       <c r="AF20" s="28"/>
     </row>
-    <row r="21" spans="1:32" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
       <c r="AE21" s="28"/>
       <c r="AF21" s="28"/>
     </row>
-    <row r="22" spans="1:32" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
       <c r="AE22" s="28"/>
       <c r="AF22" s="28"/>
     </row>
-    <row r="23" spans="1:32" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:32" ht="19.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:32" ht="16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:32" ht="16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:32" ht="16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:32" ht="16" x14ac:dyDescent="0.4">
-      <c r="A28"/>
-    </row>
-    <row r="29" spans="1:32" ht="16" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:32" ht="16" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:32" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="296">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="S16:T16"/>
     <mergeCell ref="U16:V16"/>
@@ -1972,184 +2071,90 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE11:AF11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2158,11 +2163,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0e136823-716a-45ab-8d14-c3947f0ecbdd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2419,27 +2425,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0e136823-716a-45ab-8d14-c3947f0ecbdd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19298C21-30B3-4703-B067-FEBC63CDCEB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F68E8259-7203-4347-9502-FD389377625F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fec61982-e54d-494b-88a3-acff463f2006"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0e136823-716a-45ab-8d14-c3947f0ecbdd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2464,9 +2460,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F68E8259-7203-4347-9502-FD389377625F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19298C21-30B3-4703-B067-FEBC63CDCEB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fec61982-e54d-494b-88a3-acff463f2006"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0e136823-716a-45ab-8d14-c3947f0ecbdd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>